--- a/numerical-calculation/experiment 9/data1.xlsx
+++ b/numerical-calculation/experiment 9/data1.xlsx
@@ -4,19 +4,82 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9275"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="原始数据" sheetId="1" r:id="rId1"/>
+    <sheet name="各成分贡献率" sheetId="3" r:id="rId2"/>
+    <sheet name="第一成分得分" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>地区编号</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>成分编号</t>
+  </si>
+  <si>
+    <t>贡献率</t>
+  </si>
+  <si>
+    <t>是否选为主成分</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>第一成分得分</t>
+  </si>
+  <si>
+    <t>得分排名</t>
+  </si>
   <si>
     <t>蒙</t>
   </si>
@@ -61,11 +124,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -76,8 +140,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -91,53 +230,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,71 +270,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +300,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +438,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,49 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,91 +484,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,17 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,15 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,17 +578,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,157 +611,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1032,506 +1129,586 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>130.4</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>107.7</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>64.8</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>448</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>375</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>147</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>105476</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>97.7</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>37</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>59</v>
       </c>
-      <c r="L1">
+      <c r="L2">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
+      <c r="M2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>109.7</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>64.7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>26.7</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>306.1</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>214.5</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>311000</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>98.3</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>56</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>62.3</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
+      <c r="M3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>242.9</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>160.6</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>93.7</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>581</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>521</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>316844</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>156.4</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>82</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>75</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>16.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="M4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>199.6</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>130.8</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>57.1</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1562</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1012.8</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>93</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>262461</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>100.4</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>26.9</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>49.3</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="M5">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>69.7</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>23.7</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>4.4</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>597.5</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>455.8</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>146</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>8402</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>195.3</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>68.9</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>167.8</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+      <c r="M6">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>241.6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>193.6</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>87.8</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>2381</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1702.6</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>237</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>126505</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>304.6</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>117.9</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>168.2</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="M7">
+        <v>434.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>254</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>169</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>44.5</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1939</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1534.7</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>353</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>891200</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>247.4</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>86.9</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>241.2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+      <c r="M8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>213</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>141.3</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>39.9</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2178</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1652.4</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>854</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>224400</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>350.8</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>93.9</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>224.5</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>83.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+      <c r="M9">
+        <v>422.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>79.3</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>54.8</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>28.2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1378.5</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>992.8</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>315</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>38000</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>81.1</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>10.7</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>76.3</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+      <c r="M10">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>128.2</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>75.4</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>16.9</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>1757.9</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>1044.3</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>581</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>14806</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>37</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>21.2</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>43.1</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+      <c r="M11">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>65.3</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>49.4</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>6.7</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>904</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>668.2</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>304</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>21715</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>39.1</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>17.1</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>27.1</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
+      <c r="M12">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>39.9</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>16.1</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>3.5</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>462.7</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>52.8</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>166</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>235</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>7.6</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>10.4</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>14.8</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
+      <c r="M13">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>40.8</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>26.2</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>4.8</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>650</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>475</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>215</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>3069</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>12.7</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>9.9</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>24.6</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>1.8</v>
+      </c>
+      <c r="M14">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1544,117 +1721,139 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+      <selection activeCell="A1" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="10.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="5">
+        <v>0.624696644142751</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="B3" s="5">
+        <v>0.163076733819895</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="B4" s="5">
+        <v>0.111905094100779</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="5">
+        <v>0.0620166641373095</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="B6" s="5">
+        <v>0.0186002952211916</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="B7" s="5">
+        <v>0.00990312808525671</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="B8" s="5">
+        <v>0.00594551324832744</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="B9" s="5">
+        <v>0.00150987354375905</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+      <c r="B10" s="5">
+        <v>0.00118846899531819</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+      <c r="B11" s="5">
+        <v>0.000931102136693568</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+      <c r="B12" s="5">
+        <v>0.000180812250477521</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
+      <c r="B13" s="5">
+        <v>4.56703182411211e-5</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,14 +1865,218 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-0.748568214253754</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-1.4046942396349</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.09765356345459</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0796075440116827</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-0.672614673235956</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.44988765127113</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4.052583991156</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.38788487683263</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-1.27657898893699</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:4">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-0.976300182832209</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:4">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-2.34667294595755</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:4">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-3.5777177860504</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:4">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-3.06447059582427</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D14">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
